--- a/fileUpload/OUC.xlsx
+++ b/fileUpload/OUC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BK\Desktop\fileUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -461,7 +461,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -540,6 +539,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,7 +828,7 @@
   </sheetPr>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -841,20 +843,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -866,733 +868,733 @@
         <v>2</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="32"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="22">
+      <c r="C8" s="27"/>
+      <c r="D8" s="21">
         <f>D10+D11+D13+D14</f>
         <v>0</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:5" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="10" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:5" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="10" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:5" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="10" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:5" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="10" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="13" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <f>C15+D15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <f>C16+C20</f>
         <v>0</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <f>D16+D20</f>
         <v>0</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <f t="shared" ref="B16:B48" si="0">C16+D16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <f>C18+C19</f>
         <v>0</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <f>D18+D19</f>
         <v>0</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="23">
+      <c r="B17" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="22">
         <f>C18+C19</f>
         <v>0</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <f>D18+D19</f>
         <v>0</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="14" t="s">
+      <c r="B18" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="14" t="s">
+      <c r="B19" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="23">
+      <c r="B20" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="22">
         <f>SUM(C21:C48)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <f>SUM(D21:D48)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="23">
+      <c r="B21" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="22">
         <f>C22+C32</f>
         <v>0</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <f>D22+D32</f>
         <v>0</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="23">
+      <c r="B22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="22">
         <f>C23+C26+C29</f>
         <v>0</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <f>D23+D26+D29</f>
         <v>0</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="23">
+      <c r="B23" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="22">
         <f>C24+C25</f>
         <v>0</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <f>D24+D25</f>
         <v>0</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="14" t="s">
+      <c r="B24" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="14" t="s">
+      <c r="B25" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="23">
+      <c r="B26" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="22">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="14" t="s">
+      <c r="B27" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="14" t="s">
+      <c r="B28" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="23">
+      <c r="B29" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="22">
         <f>C30+C31</f>
         <v>0</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <f>D30+D31</f>
         <v>0</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="14" t="s">
+      <c r="B30" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="14" t="s">
+      <c r="B31" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="23">
+      <c r="B32" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="22">
         <f>C33+C34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="22">
         <f>D33+D34</f>
         <v>0</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="14" t="s">
+      <c r="B33" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="14" t="s">
+      <c r="B34" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C35" s="23">
+      <c r="B35" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="22">
         <f>C36+C40</f>
         <v>0</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <f>D36+D40</f>
         <v>0</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C36" s="23">
+      <c r="B36" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="22">
         <f>C37+C38+C39</f>
         <v>0</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="22">
         <f>D37+D38+D39</f>
         <v>0</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="14" t="s">
+      <c r="B37" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="14" t="s">
+      <c r="B38" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="14" t="s">
+      <c r="B39" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="23">
+      <c r="B40" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="22">
         <f>C41+C42</f>
         <v>0</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="22">
         <f>D41+D42</f>
         <v>0</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="14" t="s">
+      <c r="B41" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="14" t="s">
+      <c r="B42" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="23">
+      <c r="B43" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="22">
         <f>C44+C45</f>
         <v>0</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="22">
         <f>D44+D45</f>
         <v>0</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="14" t="s">
+      <c r="B44" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="14" t="s">
+      <c r="B45" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C46" s="23">
+      <c r="B46" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="22">
         <f>C47+C48</f>
         <v>0</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="22">
         <f>D47+D48</f>
         <v>0</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="14" t="s">
+      <c r="B47" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="14" t="s">
+      <c r="B48" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="27"/>
+      <c r="A55" s="26"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
